--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3099780.734015055</v>
+        <v>3095475.611017985</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.09081815943087</v>
+        <v>96.866713163928</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>162.7006698602316</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>85.32318334180725</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>115.9331625653898</v>
       </c>
       <c r="I5" t="n">
-        <v>46.90907573916252</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425912</v>
+        <v>23.94240680425935</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>139.4987618372556</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>14.64931665586359</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937516</v>
+        <v>43.32085084937522</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074797</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>17.31865864494743</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>42.85958240663268</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304062</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589156</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>156.2453961203791</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>284.4448943497907</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>300.9125967763197</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1214,10 +1214,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>20.27697994470635</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>231.0273626973917</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.085774025512574</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>250.7831302631783</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>100.3801551430687</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>94.64226186542919</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>171.4915124652521</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>95.12712756824054</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>17.48314223074881</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>205.4655738502109</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>95.05806357631722</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417129</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.3722917337063</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>5.623597659135275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>80.33989744909005</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>185.6920487814947</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.26140202276</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="C2" t="n">
-        <v>583.26140202276</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="D2" t="n">
-        <v>583.26140202276</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>583.26140202276</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>393.8416170062752</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
@@ -4342,40 +4342,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262255</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262255</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262255</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262255</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262255</v>
+        <v>322.4426321268585</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262255</v>
+        <v>133.0228471103738</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262255</v>
+        <v>133.0228471103738</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.1739116400124</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="C3" t="n">
-        <v>323.1739116400124</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="D3" t="n">
-        <v>174.2395019787611</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
@@ -4421,40 +4421,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264281</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264281</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264281</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264281</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V3" t="n">
-        <v>512.5936966564972</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W3" t="n">
-        <v>512.5936966564972</v>
+        <v>474.4975299702015</v>
       </c>
       <c r="X3" t="n">
-        <v>323.1739116400124</v>
+        <v>474.4975299702015</v>
       </c>
       <c r="Y3" t="n">
-        <v>323.1739116400124</v>
+        <v>285.0777449537168</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170716</v>
@@ -4515,25 +4515,25 @@
         <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>412.6057959999868</v>
+        <v>960.8120594616187</v>
       </c>
       <c r="C5" t="n">
-        <v>412.6057959999868</v>
+        <v>960.8120594616187</v>
       </c>
       <c r="D5" t="n">
-        <v>412.6057959999868</v>
+        <v>960.8120594616187</v>
       </c>
       <c r="E5" t="n">
-        <v>412.6057959999868</v>
+        <v>575.0238068633744</v>
       </c>
       <c r="F5" t="n">
-        <v>405.6602952507833</v>
+        <v>568.0783061141709</v>
       </c>
       <c r="G5" t="n">
-        <v>393.2846541052789</v>
+        <v>151.6622609282624</v>
       </c>
       <c r="H5" t="n">
-        <v>81.94096110379053</v>
+        <v>34.55805631675758</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675758</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017217</v>
+        <v>111.6705539017212</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746977</v>
+        <v>277.9807166746967</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030761</v>
+        <v>521.2049416030745</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709177</v>
+        <v>823.5081935709155</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582752</v>
+        <v>1135.316836582749</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079239</v>
+        <v>1416.413635079236</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332758</v>
+        <v>1621.822248332753</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837884</v>
+        <v>1727.902815837879</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540652</v>
+        <v>1703.718566540647</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726301</v>
+        <v>1562.810726300995</v>
       </c>
       <c r="T5" t="n">
-        <v>1562.810726301</v>
+        <v>1350.95139143743</v>
       </c>
       <c r="U5" t="n">
-        <v>1562.810726301</v>
+        <v>1350.95139143743</v>
       </c>
       <c r="V5" t="n">
-        <v>1562.810726301</v>
+        <v>1350.95139143743</v>
       </c>
       <c r="W5" t="n">
-        <v>1562.810726301</v>
+        <v>1350.95139143743</v>
       </c>
       <c r="X5" t="n">
-        <v>1189.34496803992</v>
+        <v>1350.95139143743</v>
       </c>
       <c r="Y5" t="n">
-        <v>799.2056360641086</v>
+        <v>960.8120594616187</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>563.0357779850174</v>
+        <v>844.5579303251355</v>
       </c>
       <c r="C6" t="n">
-        <v>388.5827487038904</v>
+        <v>670.1049010440086</v>
       </c>
       <c r="D6" t="n">
-        <v>239.6483390426391</v>
+        <v>521.1704913827573</v>
       </c>
       <c r="E6" t="n">
-        <v>224.8510494912618</v>
+        <v>361.9330363773018</v>
       </c>
       <c r="F6" t="n">
-        <v>78.31649151814673</v>
+        <v>215.3984784041868</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814673</v>
+        <v>78.31649151814669</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814673</v>
+        <v>78.31649151814669</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675758</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787532</v>
+        <v>61.66788464787502</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806063</v>
+        <v>186.1577239806057</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189978</v>
+        <v>399.8722171189968</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223501</v>
+        <v>668.6238185223485</v>
       </c>
       <c r="N6" t="n">
-        <v>958.897120035248</v>
+        <v>958.897120035246</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.220686228316</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639508</v>
+        <v>1378.176233639505</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906549</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703774</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703774</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="T6" t="n">
-        <v>1401.100270703774</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="U6" t="n">
-        <v>1401.100270703774</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="V6" t="n">
-        <v>1401.100270703774</v>
+        <v>1445.878660906546</v>
       </c>
       <c r="W6" t="n">
-        <v>1146.862913975572</v>
+        <v>1428.38506631569</v>
       </c>
       <c r="X6" t="n">
-        <v>939.0114137700393</v>
+        <v>1220.533566110157</v>
       </c>
       <c r="Y6" t="n">
-        <v>731.2511150050855</v>
+        <v>1012.773267345204</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.85056379820483</v>
+        <v>211.9954171409716</v>
       </c>
       <c r="C7" t="n">
-        <v>77.85056379820483</v>
+        <v>211.9954171409716</v>
       </c>
       <c r="D7" t="n">
-        <v>77.85056379820483</v>
+        <v>211.9954171409716</v>
       </c>
       <c r="E7" t="n">
-        <v>77.85056379820483</v>
+        <v>211.9954171409716</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306124</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306124</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306124</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675768</v>
+        <v>65.10546964306124</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675768</v>
+        <v>34.55805631675758</v>
       </c>
       <c r="K7" t="n">
-        <v>64.2406666257469</v>
+        <v>64.2406666257466</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584115</v>
+        <v>132.129986158411</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347971</v>
+        <v>206.9680378347964</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195366</v>
+        <v>287.8841338195356</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934716</v>
+        <v>342.3101561934704</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858004</v>
+        <v>369.819049585799</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040917</v>
+        <v>369.819049585799</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040917</v>
+        <v>369.819049585799</v>
       </c>
       <c r="S7" t="n">
-        <v>332.5350520040917</v>
+        <v>369.819049585799</v>
       </c>
       <c r="T7" t="n">
-        <v>332.5350520040917</v>
+        <v>369.819049585799</v>
       </c>
       <c r="U7" t="n">
-        <v>332.5350520040917</v>
+        <v>369.819049585799</v>
       </c>
       <c r="V7" t="n">
-        <v>77.85056379820483</v>
+        <v>369.819049585799</v>
       </c>
       <c r="W7" t="n">
-        <v>77.85056379820483</v>
+        <v>369.819049585799</v>
       </c>
       <c r="X7" t="n">
-        <v>77.85056379820483</v>
+        <v>369.819049585799</v>
       </c>
       <c r="Y7" t="n">
-        <v>77.85056379820483</v>
+        <v>211.9954171409716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1098.886464691608</v>
+        <v>707.8891122510345</v>
       </c>
       <c r="C8" t="n">
-        <v>1098.886464691608</v>
+        <v>707.8891122510345</v>
       </c>
       <c r="D8" t="n">
-        <v>740.6207660848579</v>
+        <v>349.623413644284</v>
       </c>
       <c r="E8" t="n">
-        <v>740.6207660848579</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>733.6752653356544</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4831,25 +4831,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305293</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1451.655119961722</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1098.886464691608</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>1098.886464691608</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="Y8" t="n">
-        <v>1098.886464691608</v>
+        <v>1094.488952315156</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>522.6833321692739</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>522.6833321692739</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>522.6833321692739</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>363.4458771638183</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>216.9113191907033</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4907,28 +4907,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474382</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1367.172048607646</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1132.019940375904</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>898.6589679542958</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>898.6589679542958</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>690.8986691893419</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>347.3497871391163</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>199.4366935567232</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>52.54674605881283</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>296.6854897332227</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>296.6854897332227</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809306</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809306</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5032,40 +5032,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.568987476151</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.967522499092</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192667</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,19 +5363,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>189.4149073564862</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309957</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>943.5102657467545</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373306</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2824.769373306002</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>2824.769373306002</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>2824.769373306002</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>2824.769373306002</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>4507.978318053499</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>4288.37685307644</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>3999.301626420638</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>3744.61713821475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>3455.19996817779</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>3227.210417279772</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>3006.417838136242</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.303343953241</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.448509608146</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2246.448509608146</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1957.373282952344</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.4894946679487</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2056.567265548083</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1767.492038892281</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,16 +6463,16 @@
         <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>945.402603663004</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>776.4664207350971</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D31" t="n">
-        <v>626.3497813227614</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E31" t="n">
-        <v>478.4366877403683</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>331.5467402424579</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>376.4492432300683</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>228.5361496476752</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>793.6995478537118</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>643.582908441376</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>495.6698148589829</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>348.7798673610725</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>181.5837680759525</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,16 +7250,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
         <v>1373.553594266881</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7429,19 +7429,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7450,13 +7450,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="44">
@@ -7642,37 +7642,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2259.395357538347</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>80.64613085857584</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>70.88187642683965</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>80.6461308585759</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>50.29392045469085</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>48.89210447937288</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>11.93987647707735</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.306835078327</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>70.46607471595162</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.04875628922497</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.6711151870886</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>66.09406519747913</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>31.71340154579357</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>721501.8738540632</v>
+        <v>721501.8738540633</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="16">
@@ -26322,40 +26322,40 @@
         <v>718411.5486312485</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287562</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="L2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253122</v>
+        <v>270592.362025311</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231931</v>
+        <v>115410.0540231942</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742652</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
-        <v>2.057306155829687e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881968</v>
+        <v>62913.63765881933</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197479</v>
+        <v>27875.25362197524</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515981</v>
@@ -26420,7 +26420,7 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.4229263466</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26432,7 +26432,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189185</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26447,7 +26447,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189189</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26456,10 +26456,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936816</v>
+        <v>76435.73471936808</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26524,46 +26524,46 @@
         <v>-208467.7191353403</v>
       </c>
       <c r="C6" t="n">
-        <v>164779.0289602214</v>
+        <v>164779.0289602223</v>
       </c>
       <c r="D6" t="n">
-        <v>343599.4226632855</v>
+        <v>343599.4226632843</v>
       </c>
       <c r="E6" t="n">
-        <v>-12359.04664130858</v>
+        <v>-12706.42589566611</v>
       </c>
       <c r="F6" t="n">
-        <v>589084.160932956</v>
+        <v>588736.7816785991</v>
       </c>
       <c r="G6" t="n">
-        <v>589084.1609329572</v>
+        <v>588736.7816785995</v>
       </c>
       <c r="H6" t="n">
-        <v>589084.1609329567</v>
+        <v>588736.7816785993</v>
       </c>
       <c r="I6" t="n">
-        <v>589084.1609329561</v>
+        <v>588736.7816785995</v>
       </c>
       <c r="J6" t="n">
-        <v>540019.2162044117</v>
+        <v>539671.8369500551</v>
       </c>
       <c r="K6" t="n">
-        <v>526170.5232741365</v>
+        <v>525823.1440197801</v>
       </c>
       <c r="L6" t="n">
-        <v>561208.9073109817</v>
+        <v>560861.5280566246</v>
       </c>
       <c r="M6" t="n">
-        <v>431937.7803813582</v>
+        <v>431590.4011270014</v>
       </c>
       <c r="N6" t="n">
-        <v>589084.1609329561</v>
+        <v>588736.7816785994</v>
       </c>
       <c r="O6" t="n">
-        <v>589084.1609329564</v>
+        <v>588736.7816785994</v>
       </c>
       <c r="P6" t="n">
-        <v>589084.1609329564</v>
+        <v>588736.7816785998</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950615</v>
+        <v>758.8996292950605</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594709</v>
+        <v>431.9757039594697</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26807,19 +26807,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26919,13 +26919,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821569</v>
+        <v>210.429688382156</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262267</v>
+        <v>94.81103524262357</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.450116793151</v>
+        <v>244.4501167931498</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.1392527666935</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793151</v>
+        <v>244.4501167931496</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.1392527666937</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27156,13 +27156,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.286285363935998e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.450116793151</v>
+        <v>244.4501167931498</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666923</v>
+        <v>110.1392527666935</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734852</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294.6430235040497</v>
+        <v>285.8671284995526</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409149</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>70.09991728919363</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>166.3717998191124</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -27587,7 +27587,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.3687070976604</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>192.2970935060838</v>
       </c>
       <c r="I5" t="n">
-        <v>45.94881198843791</v>
+        <v>92.85788772760057</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27703,16 +27703,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>142.9957637995374</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>96.47037835246134</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074809</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>234.3763245159722</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>102.5614656162986</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27797,7 +27797,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304051</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.9111576058917</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166225</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
@@ -27833,7 +27833,7 @@
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>62.33925723171566</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>97.48547572247105</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>110.9581380673071</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27934,10 +27934,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>172.4862383660574</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>20.6676204635279</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>9.068535313726674</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28064,13 +28064,13 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>1.354513060649737</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.844418180573881e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.050852781085668</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429361</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428053</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286699</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520269</v>
+        <v>388.0799144520264</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511776</v>
+        <v>481.447450251177</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968099</v>
+        <v>535.7030533968092</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610696</v>
+        <v>544.3712888610689</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191489</v>
+        <v>514.0343715191483</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860963</v>
+        <v>438.7164434860958</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634656</v>
+        <v>329.4577782634652</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098728</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898981</v>
+        <v>69.52130774898974</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920252</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868537</v>
+        <v>0.2440682224868534</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030885</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403513</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062484</v>
+        <v>56.20152915062478</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475934</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>263.5887514316627</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721889</v>
+        <v>354.4276051721885</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658085</v>
+        <v>413.600297965808</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468665</v>
+        <v>424.547067146866</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374453</v>
+        <v>388.3776244374448</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872486</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>208.3680642547495</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632159</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947716</v>
       </c>
       <c r="T6" t="n">
-        <v>6.57951659737888</v>
+        <v>6.579516597378872</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757162</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236994</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377983</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734531</v>
+        <v>41.15475366734526</v>
       </c>
       <c r="J7" t="n">
-        <v>96.7534822463556</v>
+        <v>96.75348224635549</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260798</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>203.4597465162528</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.5197755399136</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.4189747528486</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>193.4323186275345</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650514997</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235541</v>
       </c>
       <c r="R7" t="n">
-        <v>61.5330748605471</v>
+        <v>61.53307486054702</v>
       </c>
       <c r="S7" t="n">
-        <v>23.849353923912</v>
+        <v>23.84935392391197</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830799</v>
+        <v>5.847259438830792</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656351</v>
+        <v>0.07464586517656341</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,10 +32083,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>342.8454457931488</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>363.537151478685</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>493.6049778318539</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.891411701984</v>
+        <v>77.89141170198366</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070463</v>
+        <v>167.9900634070459</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811904</v>
+        <v>245.6810352811898</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695372</v>
+        <v>305.3568201695365</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644787</v>
+        <v>314.958225264478</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974621</v>
+        <v>283.9361600974615</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308268</v>
+        <v>207.4834477308262</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890161</v>
+        <v>107.1520883890157</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092691</v>
+        <v>27.38366498092671</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>125.7473124573037</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923147</v>
+        <v>215.8732253923143</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437901</v>
+        <v>271.4662640437896</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635333</v>
+        <v>293.2053550635327</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930008</v>
+        <v>245.7813799930004</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.7328761729183</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872821</v>
+        <v>68.38629016872795</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554467</v>
+        <v>29.98243465554447</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501475</v>
+        <v>68.57507023501452</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230875</v>
+        <v>75.5939915923085</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761562</v>
+        <v>81.73343028761536</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569194</v>
+        <v>54.97578017569171</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235225</v>
+        <v>27.78676100235205</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35743,10 +35743,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>205.0040068187898</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342406</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>359.6305704175236</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>379.5262112417391</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3095475.611017985</v>
+        <v>3097236.14132077</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.866713163928</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>145.198658204325</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>85.32318334180725</v>
-      </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>100.1402715198114</v>
       </c>
     </row>
     <row r="4">
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>52.21594625443444</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404939</v>
       </c>
       <c r="H5" t="n">
-        <v>115.9331625653898</v>
+        <v>110.4896242968874</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425935</v>
+        <v>23.94240680425958</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937522</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>17.31865864494743</v>
+        <v>196.3506765114992</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>118.3213238908478</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304062</v>
+        <v>30.24193919304074</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589184</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.2453961203791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>65.78278632986239</v>
       </c>
       <c r="E8" t="n">
-        <v>284.4448943497907</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31.68046530976816</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9.085774025512574</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>100.3801551430687</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>192.8698817814538</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>94.64226186542919</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>95.12712756824217</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417129</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>27.0291980517616</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>80.33989744909005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>178.8757728051408</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832527</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>224.59746731481</v>
       </c>
       <c r="E2" t="n">
         <v>35.17768229832527</v>
@@ -4330,7 +4330,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058939</v>
@@ -4339,13 +4339,13 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020263</v>
@@ -4354,28 +4354,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433432</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>322.4426321268585</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>322.4426321268585</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>322.4426321268585</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268585</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X2" t="n">
-        <v>133.0228471103738</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.0228471103738</v>
+        <v>603.4370373477794</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.8624079336487</v>
+        <v>291.3154372147758</v>
       </c>
       <c r="C3" t="n">
         <v>116.8624079336487</v>
@@ -4439,22 +4439,22 @@
         <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
+        <v>750.1023486652795</v>
+      </c>
+      <c r="U3" t="n">
+        <v>750.1023486652795</v>
+      </c>
+      <c r="V3" t="n">
+        <v>750.1023486652795</v>
+      </c>
+      <c r="W3" t="n">
         <v>560.6825636487947</v>
       </c>
-      <c r="U3" t="n">
+      <c r="X3" t="n">
         <v>560.6825636487947</v>
       </c>
-      <c r="V3" t="n">
-        <v>560.6825636487947</v>
-      </c>
-      <c r="W3" t="n">
-        <v>474.4975299702015</v>
-      </c>
-      <c r="X3" t="n">
-        <v>474.4975299702015</v>
-      </c>
       <c r="Y3" t="n">
-        <v>285.0777449537168</v>
+        <v>459.5307742348438</v>
       </c>
     </row>
     <row r="4">
@@ -4515,16 +4515,16 @@
         <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
         <v>15.00204697330559</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>960.8120594616187</v>
+        <v>1313.579234564831</v>
       </c>
       <c r="C5" t="n">
-        <v>960.8120594616187</v>
+        <v>1313.579234564831</v>
       </c>
       <c r="D5" t="n">
-        <v>960.8120594616187</v>
+        <v>955.3135359580808</v>
       </c>
       <c r="E5" t="n">
-        <v>575.0238068633744</v>
+        <v>569.5252833598365</v>
       </c>
       <c r="F5" t="n">
-        <v>568.0783061141709</v>
+        <v>158.539378570229</v>
       </c>
       <c r="G5" t="n">
-        <v>151.6622609282624</v>
+        <v>146.1637374247245</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675758</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675758</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>111.6705539017205</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746967</v>
+        <v>277.9807166746951</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030745</v>
+        <v>521.2049416030724</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709155</v>
+        <v>823.5081935709129</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582749</v>
+        <v>1135.316836582746</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079236</v>
+        <v>1416.413635079232</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332753</v>
+        <v>1621.82224833275</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837879</v>
+        <v>1727.902815837875</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540647</v>
+        <v>1703.718566540643</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.810726300995</v>
+        <v>1703.718566540643</v>
       </c>
       <c r="T5" t="n">
-        <v>1350.95139143743</v>
+        <v>1703.718566540643</v>
       </c>
       <c r="U5" t="n">
-        <v>1350.95139143743</v>
+        <v>1703.718566540643</v>
       </c>
       <c r="V5" t="n">
-        <v>1350.95139143743</v>
+        <v>1703.718566540643</v>
       </c>
       <c r="W5" t="n">
-        <v>1350.95139143743</v>
+        <v>1703.718566540643</v>
       </c>
       <c r="X5" t="n">
-        <v>1350.95139143743</v>
+        <v>1703.718566540643</v>
       </c>
       <c r="Y5" t="n">
-        <v>960.8120594616187</v>
+        <v>1313.579234564831</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>844.5579303251355</v>
+        <v>663.7175082377063</v>
       </c>
       <c r="C6" t="n">
-        <v>670.1049010440086</v>
+        <v>489.2644789565793</v>
       </c>
       <c r="D6" t="n">
-        <v>521.1704913827573</v>
+        <v>340.330069295328</v>
       </c>
       <c r="E6" t="n">
-        <v>361.9330363773018</v>
+        <v>181.0926142898725</v>
       </c>
       <c r="F6" t="n">
-        <v>215.3984784041868</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="G6" t="n">
-        <v>78.31649151814669</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814669</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675758</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787502</v>
+        <v>61.66788464787477</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806057</v>
+        <v>186.1577239806051</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189968</v>
+        <v>399.8722171189958</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223485</v>
+        <v>668.6238185223469</v>
       </c>
       <c r="N6" t="n">
-        <v>958.897120035246</v>
+        <v>958.8971200352439</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228316</v>
+        <v>1202.220686228314</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639505</v>
+        <v>1378.176233639502</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906546</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906546</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906546</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906546</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906546</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906546</v>
+        <v>1445.878660906543</v>
       </c>
       <c r="W6" t="n">
-        <v>1428.38506631569</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="X6" t="n">
-        <v>1220.533566110157</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>1012.773267345204</v>
+        <v>831.9328452577743</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.9954171409716</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="C7" t="n">
-        <v>211.9954171409716</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="D7" t="n">
-        <v>211.9954171409716</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="E7" t="n">
-        <v>211.9954171409716</v>
+        <v>184.6219584216954</v>
       </c>
       <c r="F7" t="n">
-        <v>65.10546964306124</v>
+        <v>184.6219584216954</v>
       </c>
       <c r="G7" t="n">
-        <v>65.10546964306124</v>
+        <v>184.6219584216954</v>
       </c>
       <c r="H7" t="n">
-        <v>65.10546964306124</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306124</v>
+        <v>65.10546964306127</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675758</v>
+        <v>34.5580563167575</v>
       </c>
       <c r="K7" t="n">
-        <v>64.2406666257466</v>
+        <v>64.24066662574633</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158411</v>
+        <v>132.1299861584104</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347964</v>
+        <v>206.9680378347956</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195356</v>
+        <v>287.8841338195346</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934704</v>
+        <v>342.3101561934691</v>
       </c>
       <c r="P7" t="n">
-        <v>369.819049585799</v>
+        <v>369.8190495857975</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.819049585799</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="R7" t="n">
-        <v>369.819049585799</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="S7" t="n">
-        <v>369.819049585799</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="T7" t="n">
-        <v>369.819049585799</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="U7" t="n">
-        <v>369.819049585799</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="V7" t="n">
-        <v>369.819049585799</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="W7" t="n">
-        <v>369.819049585799</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="X7" t="n">
-        <v>369.819049585799</v>
+        <v>332.5350520040885</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.9954171409716</v>
+        <v>332.5350520040885</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>707.8891122510345</v>
+        <v>497.7151144029498</v>
       </c>
       <c r="C8" t="n">
-        <v>707.8891122510345</v>
+        <v>128.7525974625381</v>
       </c>
       <c r="D8" t="n">
-        <v>349.623413644284</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="E8" t="n">
         <v>62.30533854348519</v>
@@ -4834,22 +4834,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1627.222941712997</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>1274.454286442883</v>
       </c>
       <c r="X8" t="n">
-        <v>1484.628284290968</v>
+        <v>1274.454286442883</v>
       </c>
       <c r="Y8" t="n">
-        <v>1094.488952315156</v>
+        <v>884.3149544670716</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>497.4664265514521</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>347.3497871391163</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>199.4366935567232</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>52.54674605881283</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>52.54674605881283</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>52.54674605881283</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>52.54674605881283</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4983,31 +4983,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5050,22 +5050,22 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2345.568987476151</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1836.89229584329</v>
+        <v>1782.643018104999</v>
       </c>
       <c r="V13" t="n">
-        <v>1582.207807637403</v>
+        <v>1527.958529899112</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1238.541359862152</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1010.551808964134</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
     <row r="14">
@@ -5260,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367897</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>336.3048548543966</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>189.4149073564862</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,7 +5524,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5536,13 +5536,13 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5652,52 +5652,52 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2336.956424518383</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>776.1751066403293</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
         <v>261.0127623330919</v>
@@ -6138,61 +6138,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,13 +6214,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,22 +6241,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466574</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
         <v>261.0127623330919</v>
@@ -6849,61 +6849,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400717</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578601</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578601</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>633.992644467967</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>483.8760050556313</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,19 +7660,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>80.64613085857584</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>93.3145926077903</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>70.88187642683965</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>51.306835078327</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>121.5862749664508</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>66.09406519747913</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>721501.8738540633</v>
+        <v>721501.8738540632</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>721501.8738540632</v>
+        <v>721501.8738540633</v>
       </c>
     </row>
   </sheetData>
@@ -26322,31 +26322,31 @@
         <v>718411.5486312485</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="J2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
@@ -26355,7 +26355,7 @@
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.362025311</v>
+        <v>270592.3620253099</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231942</v>
+        <v>115410.0540231953</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881933</v>
+        <v>62913.63765881916</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197524</v>
+        <v>27875.25362197546</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263466</v>
+        <v>206604.4229263469</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26432,7 +26432,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26441,13 +26441,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189189</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26459,7 +26459,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936808</v>
+        <v>76435.73471936799</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26524,46 +26524,46 @@
         <v>-208467.7191353403</v>
       </c>
       <c r="C6" t="n">
-        <v>164779.0289602223</v>
+        <v>164779.0289602233</v>
       </c>
       <c r="D6" t="n">
-        <v>343599.4226632843</v>
+        <v>343599.4226632833</v>
       </c>
       <c r="E6" t="n">
-        <v>-12706.42589566611</v>
+        <v>-12393.78456674439</v>
       </c>
       <c r="F6" t="n">
-        <v>588736.7816785991</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="G6" t="n">
-        <v>588736.7816785995</v>
+        <v>589049.4230075207</v>
       </c>
       <c r="H6" t="n">
-        <v>588736.7816785993</v>
+        <v>589049.4230075206</v>
       </c>
       <c r="I6" t="n">
-        <v>588736.7816785995</v>
+        <v>589049.4230075207</v>
       </c>
       <c r="J6" t="n">
-        <v>539671.8369500551</v>
+        <v>539984.4782789763</v>
       </c>
       <c r="K6" t="n">
-        <v>525823.1440197801</v>
+        <v>526135.7853487016</v>
       </c>
       <c r="L6" t="n">
-        <v>560861.5280566246</v>
+        <v>561174.1693855451</v>
       </c>
       <c r="M6" t="n">
-        <v>431590.4011270014</v>
+        <v>431903.0424559226</v>
       </c>
       <c r="N6" t="n">
-        <v>588736.7816785994</v>
+        <v>589049.4230075207</v>
       </c>
       <c r="O6" t="n">
-        <v>588736.7816785994</v>
+        <v>589049.4230075207</v>
       </c>
       <c r="P6" t="n">
-        <v>588736.7816785998</v>
+        <v>589049.4230075208</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950605</v>
+        <v>758.8996292950596</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26792,34 +26792,34 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594697</v>
+        <v>431.9757039594687</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.429688382156</v>
+        <v>210.4296883821551</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262357</v>
+        <v>94.81103524262448</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931498</v>
+        <v>244.4501167931489</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666945</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,10 +27038,10 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931496</v>
+        <v>244.4501167931489</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666937</v>
+        <v>110.1392527666944</v>
       </c>
       <c r="M4" t="n">
         <v>630.5933313734852</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27260,13 +27260,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931498</v>
+        <v>244.4501167931489</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666935</v>
+        <v>110.1392527666945</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>285.8671284995526</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>224.532442474144</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27511,7 +27511,7 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>166.3717998191124</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>105.542424257493</v>
       </c>
     </row>
     <row r="4">
@@ -27587,7 +27587,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>154.5643095410618</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>192.2970935060838</v>
+        <v>197.7406317745862</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760057</v>
+        <v>92.85788772760071</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372557</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>96.47037835246135</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937529</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074809</v>
+        <v>44.33060630074822</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
         <v>193.5852120974427</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>234.3763245159722</v>
+        <v>55.34430664942036</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>31.73857259281198</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.9111576058917</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166225</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.33925723171566</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>288.9002552908206</v>
       </c>
       <c r="E8" t="n">
-        <v>97.48547572247105</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27906,7 +27906,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5663557888597</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>9.068535313726674</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>108.0728512656386</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085668</v>
+        <v>3.050852781085664</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429361</v>
+        <v>31.24454604429357</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428052</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286699</v>
+        <v>258.9373162286697</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520264</v>
+        <v>388.0799144520259</v>
       </c>
       <c r="L5" t="n">
-        <v>481.447450251177</v>
+        <v>481.4474502511764</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968092</v>
+        <v>535.7030533968086</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610689</v>
+        <v>544.3712888610683</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191483</v>
+        <v>514.0343715191477</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860958</v>
+        <v>438.7164434860953</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634652</v>
+        <v>329.4577782634648</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098728</v>
+        <v>191.6431310098725</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898974</v>
+        <v>69.52130774898966</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.3551080492025</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868534</v>
+        <v>0.2440682224868531</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030885</v>
+        <v>1.632350146030883</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403513</v>
+        <v>15.76506588403511</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062478</v>
+        <v>56.20152915062471</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475934</v>
+        <v>154.2212916475932</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316627</v>
+        <v>263.5887514316624</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721885</v>
+        <v>354.427605172188</v>
       </c>
       <c r="M6" t="n">
-        <v>413.600297965808</v>
+        <v>413.6002979658074</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146866</v>
+        <v>424.5470671468655</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374448</v>
+        <v>388.3776244374444</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872486</v>
+        <v>311.7072835872482</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547495</v>
+        <v>208.3680642547492</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632157</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947716</v>
+        <v>30.32018801947713</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378872</v>
+        <v>6.579516597378864</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.107391456975716</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.368507528236993</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377982</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734526</v>
+        <v>41.15475366734521</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635549</v>
+        <v>96.75348224635538</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.9956928260796</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162528</v>
+        <v>203.4597465162526</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399136</v>
+        <v>214.5197755399133</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528486</v>
+        <v>209.4189747528483</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275345</v>
+        <v>193.4323186275343</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514997</v>
+        <v>165.5147650514995</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.593844023554</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054702</v>
+        <v>61.53307486054695</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391197</v>
+        <v>23.84935392391194</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830792</v>
+        <v>5.847259438830785</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656341</v>
+        <v>0.07464586517656333</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,16 +32083,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>171.7382405950817</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982891</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593843</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198366</v>
+        <v>77.89141170198337</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070459</v>
+        <v>167.9900634070453</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811898</v>
+        <v>245.6810352811892</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695365</v>
+        <v>305.3568201695359</v>
       </c>
       <c r="N5" t="n">
-        <v>314.958225264478</v>
+        <v>314.9582252644773</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974615</v>
+        <v>283.936160097461</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308262</v>
+        <v>207.4834477308257</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890157</v>
+        <v>107.1520883890153</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092671</v>
+        <v>27.38366498092654</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573037</v>
+        <v>125.7473124573034</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923143</v>
+        <v>215.8732253923138</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437896</v>
+        <v>271.4662640437891</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635327</v>
+        <v>293.2053550635322</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930004</v>
+        <v>245.7813799929999</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729183</v>
+        <v>177.7328761729179</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872795</v>
+        <v>68.38629016872773</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554447</v>
+        <v>29.98243465554427</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501452</v>
+        <v>68.57507023501427</v>
       </c>
       <c r="M7" t="n">
-        <v>75.5939915923085</v>
+        <v>75.59399159230824</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761536</v>
+        <v>81.73343028761511</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569171</v>
+        <v>54.97578017569148</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235205</v>
+        <v>27.78676100235185</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>37.7638331807514</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762708</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795101</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
